--- a/data/trans_bre/P25A_6_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_6_R2-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,26</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-27,42%</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>41,07%</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-14,32%</t>
+          <t>-25,11%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>42,53%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-16,12%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>54,27%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-19,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>115,71%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 0,93</t>
+          <t>-2,4; 1,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 2,4</t>
+          <t>-1,18; 2,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,18</t>
+          <t>-1,63; 1,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 30,85</t>
+          <t>-0,54; 2,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-71,75; 76,09</t>
+          <t>-2,42; 1,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 232,18</t>
+          <t>-0,08; 4,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 108,12</t>
+          <t>-72,22; 77,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 178,99</t>
+          <t>-42,8; 188,83</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-62,21; 94,95</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-28,35; 234,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-57,84; 54,01</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-24,35; 430,3</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,93</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>47,78%</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,69%</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>40,89%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,7%</t>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>57,39%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>159,37%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>59,64%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56,33%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,16</t>
+          <t>-1,0; 3,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,97</t>
+          <t>-1,1; 1,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 3,72</t>
+          <t>-1,02; 5,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 62,25</t>
+          <t>-0,7; 7,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 273,84</t>
+          <t>-1,35; 3,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,89; 195,27</t>
+          <t>-1,13; 4,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 271,25</t>
+          <t>-39,23; 280,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 519,25</t>
+          <t>-48,62; 186,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-46,84; 343,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-57,95; 1227,96</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-84,18; 1022,36</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-33,02; 330,49</t>
         </is>
       </c>
     </row>
@@ -820,12 +932,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -840,22 +952,42 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-48,17%</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>422,68%</t>
+          <t>-4,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>-48,28%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>395,1%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>12,14%</t>
         </is>
       </c>
     </row>
@@ -868,17 +1000,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 4,15</t>
+          <t>-4,81; 4,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 1,89</t>
+          <t>-7,18; 1,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 8,46</t>
+          <t>0,39; 8,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,22 +1020,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-93,08; 484,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-90,17; 152,79</t>
+          <t>-4,41; 5,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-51,22; —</t>
+          <t>-85,7; 438,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>-90,12; 67,84</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-41,17; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 947,46</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,81%</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>8,85%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>39,87%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>78,33%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-10,18%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>68,6%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,26</t>
+          <t>-1,15; 1,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,33</t>
+          <t>-0,93; 1,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 1,96</t>
+          <t>-0,49; 2,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 32,31</t>
+          <t>0,02; 3,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 76,54</t>
+          <t>-1,69; 1,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 82,0</t>
+          <t>-0,19; 3,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-24,74; 137,17</t>
+          <t>-40,06; 78,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 170,18</t>
+          <t>-34,86; 71,87</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-25,71; 158,4</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 247,53</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-48,64; 65,23</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 196,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_6_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25A_6_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-25,11%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,53%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-16,12%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>54,27%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-19,91%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>115,71%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.3052768460890795</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.7945795125416155</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3050833786599667</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.8719462634578234</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.6033053471795436</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.85865181085906</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1354205028218257</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4422534093153879</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.1576050916584505</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.5426987710727006</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.197385307863893</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.083503217844325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,4; 1,06</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 2,17</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 1,08</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-0,54; 2,4</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 1,07</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-0,08; 4,44</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-72,22; 77,33</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-42,8; 188,83</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-62,21; 94,95</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-28,35; 234,73</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-57,84; 54,01</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-24,35; 430,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.124375743743034</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.188833073434948</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.641143558389389</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.5383180301027751</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-2.393684713051104</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2706359574266687</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6871898757332296</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4301708066567749</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.6329157112570689</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2834831888017869</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.5773951954709767</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.2834235005980622</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.676864326716597</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.192882792017108</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.083683647697744</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.399585077665893</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.093362796909569</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>4.262940331401489</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.277606077680683</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.938831350423458</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.9453733368869591</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>2.347283042087451</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5243183725515523</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>4.052732896363628</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,01</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,26</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,81</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>48,19%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>18,17%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>57,39%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>159,37%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>59,64%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>56,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 3,39</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,1; 1,98</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,02; 5,27</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 7,53</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 3,69</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,13; 4,97</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-39,23; 280,8</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-48,62; 186,86</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-46,84; 343,71</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-57,95; 1227,96</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-84,18; 1022,36</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-33,02; 330,49</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.018597983574548</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1148210594929529</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.12496585867179</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.809723524004352</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.7013493654381839</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>1.813451716252281</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.524345727194126</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.06249719871009276</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.5107702865845885</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.593719766474639</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.5425066746905692</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.630452279796855</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-4,29%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-48,28%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>395,1%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>12,14%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.8711271957723206</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.462306026804994</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.250104849535673</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6983722674075428</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-1.428782067019112</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.9944086117773409</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.3476622669571995</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5722066118560314</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.5045295929971749</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.5795235336872584</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.8489675530861925</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.3181693220248111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,81; 4,61</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 1,31</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 8,2</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 5,52</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-85,7; 438,69</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-90,12; 67,84</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-41,17; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 947,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.395424031415271</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.665371060781586</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.697262044319498</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.526000404708262</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>3.628295777268416</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>5.253579830509961</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.83639960816254</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.606159626227979</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.242297031193756</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>12.27963902319475</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>9.958922334657847</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>3.284730621086814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,243 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,77</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-0,27</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,62</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>8,85%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>39,87%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>78,33%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-10,18%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>68,6%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.127275383361114</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.450628619045041</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.793988935268813</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.6026565467337264</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.04775096718224169</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.4872145397151243</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>3.847915832827356</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>0.2066335426460123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 1,38</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,93; 1,26</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 2,33</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 3,07</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 1,21</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,19; 3,28</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-40,06; 78,73</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-34,86; 71,87</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-25,71; 158,4</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-2,49; 247,53</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-48,64; 65,23</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 196,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.425645929303828</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.938080789090921</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.3718302022341859</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-3.681311786114493</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8360942858297382</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.9058739623181981</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4169281597124158</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.302653102928433</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.281651402998904</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.02004436100856</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>5.773522558352879</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>5.517742845746375</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.6149189224088213</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>10.68727303195966</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.2560372919378853</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1376217495200918</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.7109111088677937</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.287890604495099</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.276157731735846</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>1.669313000819613</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.117423130477214</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.06229528619078833</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3690838003363609</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.7832868108316973</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.1050788306813962</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.7168171701209027</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.9069030801046916</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.045304437756936</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.593146465195425</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.0223071870510784</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.677904012362012</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.1825736588024778</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3465518490015302</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.378025453727374</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.2732958766167264</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.02487301104648585</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.4911983487827724</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.08628271625819067</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.580761777863433</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.206259698916794</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.107989657194922</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.066748006365384</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.222637293561029</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>3.371886728791449</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.9948621115461186</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7053712062266133</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.475115965205772</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>2.475271885234224</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.6421184179206108</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>2.046834126895942</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1175,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
